--- a/nilai/Nilai RL 2 2019 - 2020.xlsx
+++ b/nilai/Nilai RL 2 2019 - 2020.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Total" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="UTS" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t xml:space="preserve">Rekapitulasi Nilai Rangkaian Listrik II 2019/2020</t>
   </si>
@@ -224,6 +225,9 @@
   </si>
   <si>
     <t xml:space="preserve">Irfan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metode</t>
   </si>
 </sst>
 </file>
@@ -353,11 +357,11 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="topRight" activeCell="G3" activeCellId="0" sqref="G3"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topRight" activeCell="M3" activeCellId="0" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,7 +468,9 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="N6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,8 +492,12 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="L7" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,8 +519,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="L8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="N8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,8 +546,12 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,8 +573,12 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="L10" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="N10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,8 +600,12 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="L11" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="N11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,8 +627,12 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="L12" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,8 +654,12 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="L13" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>35</v>
+      </c>
       <c r="N13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,8 +681,12 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="L14" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="N14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,8 +708,12 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="L15" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,8 +735,12 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="L16" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,8 +762,12 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="L17" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,8 +789,12 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="L18" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,8 +816,12 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="L19" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,8 +843,12 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="L20" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="N20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,8 +870,12 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="L21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="N21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,8 +897,12 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="L22" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="N22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,8 +924,12 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="L23" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,8 +951,12 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="L24" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="N24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,8 +978,12 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="L25" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,8 +1005,12 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="L26" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,8 +1032,12 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="L27" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M27" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="N27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,8 +1059,12 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="L28" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="M28" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,8 +1086,12 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="L29" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,8 +1113,12 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="L30" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,8 +1140,12 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="L31" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="N31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,8 +1167,12 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="L32" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,8 +1194,12 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="L33" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="M33" s="4" t="n">
+        <v>45</v>
+      </c>
       <c r="N33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,8 +1221,12 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="L34" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M34" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N34" s="4"/>
     </row>
   </sheetData>
@@ -1132,4 +1250,385 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:E32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/nilai/Nilai RL 2 2019 - 2020.xlsx
+++ b/nilai/Nilai RL 2 2019 - 2020.xlsx
@@ -384,12 +384,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -399,19 +399,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:Q39"/>
+  <dimension ref="B2:U39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topRight" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,6 +435,10 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="2"/>
@@ -452,6 +458,10 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3" t="s">
@@ -472,13 +482,17 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -492,6 +506,10 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="3" t="s">
@@ -512,13 +530,17 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -532,13 +554,17 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -564,24 +590,28 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8" t="s">
+      <c r="Q9" s="7"/>
+      <c r="R9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="S9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="T9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="U9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="true" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="6" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -605,15 +635,27 @@
         <v>4</v>
       </c>
       <c r="L10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="Q10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="n">
@@ -626,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="9" t="n">
-        <f aca="false">$E$4*F11/G11*100+$E$5*AVERAGE(H11:K11)+$E$6*AVERAGE(L11:M11)+$E$7*N11+$E$8*Q11</f>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F11/G11*100+$E$5*AVERAGE(H11:O11)+$E$6*AVERAGE(P11:Q11)+$E$7*R11+$E$8*U11)</f>
         <v>10</v>
       </c>
       <c r="F11" s="9" t="n">
@@ -647,21 +689,25 @@
       <c r="K11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="9" t="n">
-        <f aca="false">0.4*O11+0.6*P11</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="9"/>
+      <c r="R11" s="9" t="n">
+        <f aca="false">0.4*S11+0.6*T11</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="n">
@@ -674,8 +720,8 @@
         <v>21</v>
       </c>
       <c r="E12" s="9" t="n">
-        <f aca="false">$E$4*F12/G12*100+$E$5*AVERAGE(H12:K12)+$E$6*AVERAGE(L12:M12)+$E$7*N12+$E$8*Q12</f>
-        <v>37.95</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F12/G12*100+$E$5*AVERAGE(H12:O12)+$E$6*AVERAGE(P12:Q12)+$E$7*R12+$E$8*U12)</f>
+        <v>48</v>
       </c>
       <c r="F12" s="9" t="n">
         <v>16</v>
@@ -696,20 +742,28 @@
         <v>50</v>
       </c>
       <c r="L12" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M12" s="9"/>
-      <c r="N12" s="9" t="n">
-        <f aca="false">0.4*O12+0.6*P12</f>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9" t="n">
+        <f aca="false">0.4*S12+0.6*T12</f>
         <v>56</v>
       </c>
-      <c r="O12" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P12" s="9" t="n">
+      <c r="S12" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T12" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q12" s="9"/>
+      <c r="U12" s="9" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="n">
@@ -722,8 +776,8 @@
         <v>23</v>
       </c>
       <c r="E13" s="9" t="n">
-        <f aca="false">$E$4*F13/G13*100+$E$5*AVERAGE(H13:K13)+$E$6*AVERAGE(L13:M13)+$E$7*N13+$E$8*Q13</f>
-        <v>29.4</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F13/G13*100+$E$5*AVERAGE(H13:O13)+$E$6*AVERAGE(P13:Q13)+$E$7*R13+$E$8*U13)</f>
+        <v>34</v>
       </c>
       <c r="F13" s="9" t="n">
         <v>16</v>
@@ -744,20 +798,26 @@
         <v>50</v>
       </c>
       <c r="L13" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9" t="n">
-        <f aca="false">0.4*O13+0.6*P13</f>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9" t="n">
+        <f aca="false">0.4*S13+0.6*T13</f>
         <v>62</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="S13" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P13" s="9" t="n">
+      <c r="T13" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="Q13" s="9"/>
+      <c r="U13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="n">
@@ -770,8 +830,8 @@
         <v>25</v>
       </c>
       <c r="E14" s="9" t="n">
-        <f aca="false">$E$4*F14/G14*100+$E$5*AVERAGE(H14:K14)+$E$6*AVERAGE(L14:M14)+$E$7*N14+$E$8*Q14</f>
-        <v>33.825</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F14/G14*100+$E$5*AVERAGE(H14:O14)+$E$6*AVERAGE(P14:Q14)+$E$7*R14+$E$8*U14)</f>
+        <v>41</v>
       </c>
       <c r="F14" s="9" t="n">
         <v>16</v>
@@ -792,20 +852,28 @@
         <v>50</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M14" s="9"/>
-      <c r="N14" s="9" t="n">
-        <f aca="false">0.4*O14+0.6*P14</f>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9" t="n">
+        <f aca="false">0.4*S14+0.6*T14</f>
         <v>56</v>
       </c>
-      <c r="O14" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P14" s="9" t="n">
+      <c r="S14" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T14" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q14" s="9"/>
+      <c r="U14" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="n">
@@ -818,8 +886,8 @@
         <v>27</v>
       </c>
       <c r="E15" s="9" t="n">
-        <f aca="false">$E$4*F15/G15*100+$E$5*AVERAGE(H15:K15)+$E$6*AVERAGE(L15:M15)+$E$7*N15+$E$8*Q15</f>
-        <v>30.75</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F15/G15*100+$E$5*AVERAGE(H15:O15)+$E$6*AVERAGE(P15:Q15)+$E$7*R15+$E$8*U15)</f>
+        <v>32</v>
       </c>
       <c r="F15" s="9" t="n">
         <v>16</v>
@@ -839,21 +907,27 @@
       <c r="K15" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="L15" s="9" t="n">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9" t="n">
-        <f aca="false">0.4*O15+0.6*P15</f>
-        <v>50</v>
-      </c>
-      <c r="O15" s="9" t="n">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9" t="n">
+        <f aca="false">0.4*S15+0.6*T15</f>
+        <v>50</v>
+      </c>
+      <c r="S15" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P15" s="9" t="n">
+      <c r="T15" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q15" s="9"/>
+      <c r="U15" s="9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="n">
@@ -866,8 +940,8 @@
         <v>29</v>
       </c>
       <c r="E16" s="9" t="n">
-        <f aca="false">$E$4*F16/G16*100+$E$5*AVERAGE(H16:K16)+$E$6*AVERAGE(L16:M16)+$E$7*N16+$E$8*Q16</f>
-        <v>30.375</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F16/G16*100+$E$5*AVERAGE(H16:O16)+$E$6*AVERAGE(P16:Q16)+$E$7*R16+$E$8*U16)</f>
+        <v>38</v>
       </c>
       <c r="F16" s="9" t="n">
         <v>16</v>
@@ -888,20 +962,28 @@
         <v>50</v>
       </c>
       <c r="L16" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9" t="n">
-        <f aca="false">0.4*O16+0.6*P16</f>
-        <v>50</v>
-      </c>
-      <c r="O16" s="9" t="n">
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9" t="n">
+        <f aca="false">0.4*S16+0.6*T16</f>
+        <v>50</v>
+      </c>
+      <c r="S16" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P16" s="9" t="n">
+      <c r="T16" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q16" s="9"/>
+      <c r="U16" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="n">
@@ -914,8 +996,8 @@
         <v>31</v>
       </c>
       <c r="E17" s="9" t="n">
-        <f aca="false">$E$4*F17/G17*100+$E$5*AVERAGE(H17:K17)+$E$6*AVERAGE(L17:M17)+$E$7*N17+$E$8*Q17</f>
-        <v>34.575</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F17/G17*100+$E$5*AVERAGE(H17:O17)+$E$6*AVERAGE(P17:Q17)+$E$7*R17+$E$8*U17)</f>
+        <v>42</v>
       </c>
       <c r="F17" s="9" t="n">
         <v>16</v>
@@ -936,20 +1018,28 @@
         <v>50</v>
       </c>
       <c r="L17" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M17" s="9"/>
-      <c r="N17" s="9" t="n">
-        <f aca="false">0.4*O17+0.6*P17</f>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9" t="n">
+        <f aca="false">0.4*S17+0.6*T17</f>
         <v>56</v>
       </c>
-      <c r="O17" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P17" s="9" t="n">
+      <c r="S17" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q17" s="9"/>
+      <c r="U17" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="n">
@@ -962,8 +1052,8 @@
         <v>33</v>
       </c>
       <c r="E18" s="9" t="n">
-        <f aca="false">$E$4*F18/G18*100+$E$5*AVERAGE(H18:K18)+$E$6*AVERAGE(L18:M18)+$E$7*N18+$E$8*Q18</f>
-        <v>47.925</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F18/G18*100+$E$5*AVERAGE(H18:O18)+$E$6*AVERAGE(P18:Q18)+$E$7*R18+$E$8*U18)</f>
+        <v>57</v>
       </c>
       <c r="F18" s="9" t="n">
         <v>16</v>
@@ -984,20 +1074,28 @@
         <v>50</v>
       </c>
       <c r="L18" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9" t="n">
-        <f aca="false">0.4*O18+0.6*P18</f>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9" t="n">
+        <f aca="false">0.4*S18+0.6*T18</f>
         <v>74</v>
       </c>
-      <c r="O18" s="9" t="n">
+      <c r="S18" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="P18" s="9" t="n">
+      <c r="T18" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="Q18" s="9"/>
+      <c r="U18" s="9" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="n">
@@ -1010,8 +1108,8 @@
         <v>35</v>
       </c>
       <c r="E19" s="9" t="n">
-        <f aca="false">$E$4*F19/G19*100+$E$5*AVERAGE(H19:K19)+$E$6*AVERAGE(L19:M19)+$E$7*N19+$E$8*Q19</f>
-        <v>29.625</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F19/G19*100+$E$5*AVERAGE(H19:O19)+$E$6*AVERAGE(P19:Q19)+$E$7*R19+$E$8*U19)</f>
+        <v>37</v>
       </c>
       <c r="F19" s="9" t="n">
         <v>16</v>
@@ -1032,20 +1130,28 @@
         <v>50</v>
       </c>
       <c r="L19" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9" t="n">
-        <f aca="false">0.4*O19+0.6*P19</f>
-        <v>50</v>
-      </c>
-      <c r="O19" s="9" t="n">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9" t="n">
+        <f aca="false">0.4*S19+0.6*T19</f>
+        <v>50</v>
+      </c>
+      <c r="S19" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P19" s="9" t="n">
+      <c r="T19" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q19" s="9"/>
+      <c r="U19" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="n">
@@ -1058,8 +1164,8 @@
         <v>37</v>
       </c>
       <c r="E20" s="9" t="n">
-        <f aca="false">$E$4*F20/G20*100+$E$5*AVERAGE(H20:K20)+$E$6*AVERAGE(L20:M20)+$E$7*N20+$E$8*Q20</f>
-        <v>24.225</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F20/G20*100+$E$5*AVERAGE(H20:O20)+$E$6*AVERAGE(P20:Q20)+$E$7*R20+$E$8*U20)</f>
+        <v>34</v>
       </c>
       <c r="F20" s="9" t="n">
         <v>16</v>
@@ -1080,20 +1186,28 @@
         <v>50</v>
       </c>
       <c r="L20" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M20" s="9"/>
-      <c r="N20" s="9" t="n">
-        <f aca="false">0.4*O20+0.6*P20</f>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9" t="n">
+        <f aca="false">0.4*S20+0.6*T20</f>
         <v>8</v>
       </c>
-      <c r="O20" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P20" s="9" t="n">
+      <c r="S20" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" s="9"/>
+      <c r="U20" s="9" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="n">
@@ -1106,8 +1220,8 @@
         <v>39</v>
       </c>
       <c r="E21" s="9" t="n">
-        <f aca="false">$E$4*F21/G21*100+$E$5*AVERAGE(H21:K21)+$E$6*AVERAGE(L21:M21)+$E$7*N21+$E$8*Q21</f>
-        <v>42.675</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F21/G21*100+$E$5*AVERAGE(H21:O21)+$E$6*AVERAGE(P21:Q21)+$E$7*R21+$E$8*U21)</f>
+        <v>51</v>
       </c>
       <c r="F21" s="9" t="n">
         <v>16</v>
@@ -1128,20 +1242,28 @@
         <v>50</v>
       </c>
       <c r="L21" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M21" s="9"/>
-      <c r="N21" s="9" t="n">
-        <f aca="false">0.4*O21+0.6*P21</f>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9" t="n">
+        <f aca="false">0.4*S21+0.6*T21</f>
         <v>56</v>
       </c>
-      <c r="O21" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P21" s="9" t="n">
+      <c r="S21" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q21" s="9"/>
+      <c r="U21" s="9" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="n">
@@ -1154,8 +1276,8 @@
         <v>41</v>
       </c>
       <c r="E22" s="9" t="n">
-        <f aca="false">$E$4*F22/G22*100+$E$5*AVERAGE(H22:K22)+$E$6*AVERAGE(L22:M22)+$E$7*N22+$E$8*Q22</f>
-        <v>34.2</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F22/G22*100+$E$5*AVERAGE(H22:O22)+$E$6*AVERAGE(P22:Q22)+$E$7*R22+$E$8*U22)</f>
+        <v>41</v>
       </c>
       <c r="F22" s="9" t="n">
         <v>16</v>
@@ -1176,20 +1298,28 @@
         <v>50</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M22" s="9"/>
-      <c r="N22" s="9" t="n">
-        <f aca="false">0.4*O22+0.6*P22</f>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9" t="n">
+        <f aca="false">0.4*S22+0.6*T22</f>
         <v>56</v>
       </c>
-      <c r="O22" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P22" s="9" t="n">
+      <c r="S22" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q22" s="9"/>
+      <c r="U22" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="n">
@@ -1202,8 +1332,8 @@
         <v>43</v>
       </c>
       <c r="E23" s="9" t="n">
-        <f aca="false">$E$4*F23/G23*100+$E$5*AVERAGE(H23:K23)+$E$6*AVERAGE(L23:M23)+$E$7*N23+$E$8*Q23</f>
-        <v>39.45</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F23/G23*100+$E$5*AVERAGE(H23:O23)+$E$6*AVERAGE(P23:Q23)+$E$7*R23+$E$8*U23)</f>
+        <v>47</v>
       </c>
       <c r="F23" s="9" t="n">
         <v>16</v>
@@ -1224,20 +1354,28 @@
         <v>50</v>
       </c>
       <c r="L23" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M23" s="9"/>
-      <c r="N23" s="9" t="n">
-        <f aca="false">0.4*O23+0.6*P23</f>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9" t="n">
+        <f aca="false">0.4*S23+0.6*T23</f>
         <v>56</v>
       </c>
-      <c r="O23" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P23" s="9" t="n">
+      <c r="S23" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T23" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q23" s="9"/>
+      <c r="U23" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="n">
@@ -1250,8 +1388,8 @@
         <v>45</v>
       </c>
       <c r="E24" s="9" t="n">
-        <f aca="false">$E$4*F24/G24*100+$E$5*AVERAGE(H24:K24)+$E$6*AVERAGE(L24:M24)+$E$7*N24+$E$8*Q24</f>
-        <v>34.575</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F24/G24*100+$E$5*AVERAGE(H24:O24)+$E$6*AVERAGE(P24:Q24)+$E$7*R24+$E$8*U24)</f>
+        <v>42</v>
       </c>
       <c r="F24" s="9" t="n">
         <v>16</v>
@@ -1272,20 +1410,28 @@
         <v>50</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M24" s="9"/>
-      <c r="N24" s="9" t="n">
-        <f aca="false">0.4*O24+0.6*P24</f>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9" t="n">
+        <f aca="false">0.4*S24+0.6*T24</f>
         <v>56</v>
       </c>
-      <c r="O24" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P24" s="9" t="n">
+      <c r="S24" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T24" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q24" s="9"/>
+      <c r="U24" s="9" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="n">
@@ -1298,8 +1444,8 @@
         <v>47</v>
       </c>
       <c r="E25" s="9" t="n">
-        <f aca="false">$E$4*F25/G25*100+$E$5*AVERAGE(H25:K25)+$E$6*AVERAGE(L25:M25)+$E$7*N25+$E$8*Q25</f>
-        <v>31.875</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F25/G25*100+$E$5*AVERAGE(H25:O25)+$E$6*AVERAGE(P25:Q25)+$E$7*R25+$E$8*U25)</f>
+        <v>39</v>
       </c>
       <c r="F25" s="9" t="n">
         <v>16</v>
@@ -1320,20 +1466,28 @@
         <v>50</v>
       </c>
       <c r="L25" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9" t="n">
-        <f aca="false">0.4*O25+0.6*P25</f>
-        <v>50</v>
-      </c>
-      <c r="O25" s="9" t="n">
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9" t="n">
+        <f aca="false">0.4*S25+0.6*T25</f>
+        <v>50</v>
+      </c>
+      <c r="S25" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P25" s="9" t="n">
+      <c r="T25" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q25" s="9"/>
+      <c r="U25" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="n">
@@ -1346,8 +1500,8 @@
         <v>49</v>
       </c>
       <c r="E26" s="9" t="n">
-        <f aca="false">$E$4*F26/G26*100+$E$5*AVERAGE(H26:K26)+$E$6*AVERAGE(L26:M26)+$E$7*N26+$E$8*Q26</f>
-        <v>31.775</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F26/G26*100+$E$5*AVERAGE(H26:O26)+$E$6*AVERAGE(P26:Q26)+$E$7*R26+$E$8*U26)</f>
+        <v>40</v>
       </c>
       <c r="F26" s="9" t="n">
         <v>16</v>
@@ -1368,20 +1522,28 @@
         <v>50</v>
       </c>
       <c r="L26" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9" t="n">
-        <f aca="false">0.4*O26+0.6*P26</f>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9" t="n">
+        <f aca="false">0.4*S26+0.6*T26</f>
         <v>52</v>
       </c>
-      <c r="O26" s="9" t="n">
+      <c r="S26" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="P26" s="9" t="n">
+      <c r="T26" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q26" s="9"/>
+      <c r="U26" s="9" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="n">
@@ -1394,8 +1556,8 @@
         <v>51</v>
       </c>
       <c r="E27" s="9" t="n">
-        <f aca="false">$E$4*F27/G27*100+$E$5*AVERAGE(H27:K27)+$E$6*AVERAGE(L27:M27)+$E$7*N27+$E$8*Q27</f>
-        <v>28.5</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F27/G27*100+$E$5*AVERAGE(H27:O27)+$E$6*AVERAGE(P27:Q27)+$E$7*R27+$E$8*U27)</f>
+        <v>36</v>
       </c>
       <c r="F27" s="9" t="n">
         <v>16</v>
@@ -1416,20 +1578,28 @@
         <v>50</v>
       </c>
       <c r="L27" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9" t="n">
-        <f aca="false">0.4*O27+0.6*P27</f>
-        <v>50</v>
-      </c>
-      <c r="O27" s="9" t="n">
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9" t="n">
+        <f aca="false">0.4*S27+0.6*T27</f>
+        <v>50</v>
+      </c>
+      <c r="S27" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P27" s="9" t="n">
+      <c r="T27" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q27" s="9"/>
+      <c r="U27" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="n">
@@ -1442,8 +1612,8 @@
         <v>53</v>
       </c>
       <c r="E28" s="9" t="n">
-        <f aca="false">$E$4*F28/G28*100+$E$5*AVERAGE(H28:K28)+$E$6*AVERAGE(L28:M28)+$E$7*N28+$E$8*Q28</f>
-        <v>27.975</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F28/G28*100+$E$5*AVERAGE(H28:O28)+$E$6*AVERAGE(P28:Q28)+$E$7*R28+$E$8*U28)</f>
+        <v>36</v>
       </c>
       <c r="F28" s="9" t="n">
         <v>16</v>
@@ -1464,20 +1634,28 @@
         <v>50</v>
       </c>
       <c r="L28" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M28" s="9"/>
-      <c r="N28" s="9" t="n">
-        <f aca="false">0.4*O28+0.6*P28</f>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9" t="n">
+        <f aca="false">0.4*S28+0.6*T28</f>
         <v>38</v>
       </c>
-      <c r="O28" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P28" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q28" s="9"/>
+      <c r="S28" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T28" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="U28" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="n">
@@ -1490,8 +1668,8 @@
         <v>55</v>
       </c>
       <c r="E29" s="9" t="n">
-        <f aca="false">$E$4*F29/G29*100+$E$5*AVERAGE(H29:K29)+$E$6*AVERAGE(L29:M29)+$E$7*N29+$E$8*Q29</f>
-        <v>34.125</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F29/G29*100+$E$5*AVERAGE(H29:O29)+$E$6*AVERAGE(P29:Q29)+$E$7*R29+$E$8*U29)</f>
+        <v>42</v>
       </c>
       <c r="F29" s="9" t="n">
         <v>16</v>
@@ -1512,20 +1690,28 @@
         <v>25</v>
       </c>
       <c r="L29" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9" t="n">
-        <f aca="false">0.4*O29+0.6*P29</f>
-        <v>50</v>
-      </c>
-      <c r="O29" s="9" t="n">
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9" t="n">
+        <f aca="false">0.4*S29+0.6*T29</f>
+        <v>50</v>
+      </c>
+      <c r="S29" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P29" s="9" t="n">
+      <c r="T29" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q29" s="9"/>
+      <c r="U29" s="9" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="n">
@@ -1538,8 +1724,8 @@
         <v>57</v>
       </c>
       <c r="E30" s="9" t="n">
-        <f aca="false">$E$4*F30/G30*100+$E$5*AVERAGE(H30:K30)+$E$6*AVERAGE(L30:M30)+$E$7*N30+$E$8*Q30</f>
-        <v>33.45</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F30/G30*100+$E$5*AVERAGE(H30:O30)+$E$6*AVERAGE(P30:Q30)+$E$7*R30+$E$8*U30)</f>
+        <v>36</v>
       </c>
       <c r="F30" s="9" t="n">
         <v>16</v>
@@ -1559,21 +1745,27 @@
       <c r="K30" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="L30" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="9" t="n">
-        <f aca="false">0.4*O30+0.6*P30</f>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9" t="n">
+        <f aca="false">0.4*S30+0.6*T30</f>
         <v>56</v>
       </c>
-      <c r="O30" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P30" s="9" t="n">
+      <c r="S30" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T30" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q30" s="9"/>
+      <c r="U30" s="9" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="n">
@@ -1586,8 +1778,8 @@
         <v>59</v>
       </c>
       <c r="E31" s="9" t="n">
-        <f aca="false">$E$4*F31/G31*100+$E$5*AVERAGE(H31:K31)+$E$6*AVERAGE(L31:M31)+$E$7*N31+$E$8*Q31</f>
-        <v>41.85</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F31/G31*100+$E$5*AVERAGE(H31:O31)+$E$6*AVERAGE(P31:Q31)+$E$7*R31+$E$8*U31)</f>
+        <v>49</v>
       </c>
       <c r="F31" s="9" t="n">
         <v>16</v>
@@ -1608,20 +1800,28 @@
         <v>50</v>
       </c>
       <c r="L31" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M31" s="9"/>
-      <c r="N31" s="9" t="n">
-        <f aca="false">0.4*O31+0.6*P31</f>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9" t="n">
+        <f aca="false">0.4*S31+0.6*T31</f>
         <v>68</v>
       </c>
-      <c r="O31" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P31" s="9" t="n">
+      <c r="S31" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T31" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="Q31" s="9"/>
+      <c r="U31" s="9" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="n">
@@ -1634,8 +1834,8 @@
         <v>61</v>
       </c>
       <c r="E32" s="9" t="n">
-        <f aca="false">$E$4*F32/G32*100+$E$5*AVERAGE(H32:K32)+$E$6*AVERAGE(L32:M32)+$E$7*N32+$E$8*Q32</f>
-        <v>29.25</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F32/G32*100+$E$5*AVERAGE(H32:O32)+$E$6*AVERAGE(P32:Q32)+$E$7*R32+$E$8*U32)</f>
+        <v>36</v>
       </c>
       <c r="F32" s="9" t="n">
         <v>16</v>
@@ -1656,20 +1856,28 @@
         <v>50</v>
       </c>
       <c r="L32" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9" t="n">
-        <f aca="false">0.4*O32+0.6*P32</f>
-        <v>50</v>
-      </c>
-      <c r="O32" s="9" t="n">
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9" t="n">
+        <f aca="false">0.4*S32+0.6*T32</f>
+        <v>50</v>
+      </c>
+      <c r="S32" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P32" s="9" t="n">
+      <c r="T32" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q32" s="9"/>
+      <c r="U32" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="n">
@@ -1682,8 +1890,8 @@
         <v>63</v>
       </c>
       <c r="E33" s="9" t="n">
-        <f aca="false">$E$4*F33/G33*100+$E$5*AVERAGE(H33:K33)+$E$6*AVERAGE(L33:M33)+$E$7*N33+$E$8*Q33</f>
-        <v>37.45</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F33/G33*100+$E$5*AVERAGE(H33:O33)+$E$6*AVERAGE(P33:Q33)+$E$7*R33+$E$8*U33)</f>
+        <v>45</v>
       </c>
       <c r="F33" s="9" t="n">
         <v>16</v>
@@ -1704,20 +1912,28 @@
         <v>50</v>
       </c>
       <c r="L33" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9" t="n">
-        <f aca="false">0.4*O33+0.6*P33</f>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9" t="n">
+        <f aca="false">0.4*S33+0.6*T33</f>
         <v>56</v>
       </c>
-      <c r="O33" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P33" s="9" t="n">
+      <c r="S33" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T33" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q33" s="9"/>
+      <c r="U33" s="9" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="n">
@@ -1730,8 +1946,8 @@
         <v>65</v>
       </c>
       <c r="E34" s="9" t="n">
-        <f aca="false">$E$4*F34/G34*100+$E$5*AVERAGE(H34:K34)+$E$6*AVERAGE(L34:M34)+$E$7*N34+$E$8*Q34</f>
-        <v>40.2</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F34/G34*100+$E$5*AVERAGE(H34:O34)+$E$6*AVERAGE(P34:Q34)+$E$7*R34+$E$8*U34)</f>
+        <v>45</v>
       </c>
       <c r="F34" s="9" t="n">
         <v>16</v>
@@ -1751,21 +1967,27 @@
       <c r="K34" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="L34" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="9" t="n">
-        <f aca="false">0.4*O34+0.6*P34</f>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9" t="n">
+        <f aca="false">0.4*S34+0.6*T34</f>
         <v>56</v>
       </c>
-      <c r="O34" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P34" s="9" t="n">
+      <c r="S34" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T34" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q34" s="9"/>
+      <c r="U34" s="9" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="9" t="n">
@@ -1778,8 +2000,8 @@
         <v>67</v>
       </c>
       <c r="E35" s="9" t="n">
-        <f aca="false">$E$4*F35/G35*100+$E$5*AVERAGE(H35:K35)+$E$6*AVERAGE(L35:M35)+$E$7*N35+$E$8*Q35</f>
-        <v>43.2</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F35/G35*100+$E$5*AVERAGE(H35:O35)+$E$6*AVERAGE(P35:Q35)+$E$7*R35+$E$8*U35)</f>
+        <v>52</v>
       </c>
       <c r="F35" s="9" t="n">
         <v>16</v>
@@ -1800,20 +2022,28 @@
         <v>50</v>
       </c>
       <c r="L35" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M35" s="9"/>
-      <c r="N35" s="9" t="n">
-        <f aca="false">0.4*O35+0.6*P35</f>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9" t="n">
+        <f aca="false">0.4*S35+0.6*T35</f>
         <v>56</v>
       </c>
-      <c r="O35" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P35" s="9" t="n">
+      <c r="S35" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T35" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q35" s="9"/>
+      <c r="U35" s="9" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="n">
@@ -1826,8 +2056,8 @@
         <v>69</v>
       </c>
       <c r="E36" s="9" t="n">
-        <f aca="false">$E$4*F36/G36*100+$E$5*AVERAGE(H36:K36)+$E$6*AVERAGE(L36:M36)+$E$7*N36+$E$8*Q36</f>
-        <v>35.1</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F36/G36*100+$E$5*AVERAGE(H36:O36)+$E$6*AVERAGE(P36:Q36)+$E$7*R36+$E$8*U36)</f>
+        <v>43</v>
       </c>
       <c r="F36" s="9" t="n">
         <v>16</v>
@@ -1848,20 +2078,28 @@
         <v>50</v>
       </c>
       <c r="L36" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9" t="n">
-        <f aca="false">0.4*O36+0.6*P36</f>
-        <v>50</v>
-      </c>
-      <c r="O36" s="9" t="n">
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9" t="n">
+        <f aca="false">0.4*S36+0.6*T36</f>
+        <v>50</v>
+      </c>
+      <c r="S36" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="P36" s="9" t="n">
+      <c r="T36" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q36" s="9"/>
+      <c r="U36" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="n">
@@ -1874,8 +2112,8 @@
         <v>71</v>
       </c>
       <c r="E37" s="9" t="n">
-        <f aca="false">$E$4*F37/G37*100+$E$5*AVERAGE(H37:K37)+$E$6*AVERAGE(L37:M37)+$E$7*N37+$E$8*Q37</f>
-        <v>39.45</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F37/G37*100+$E$5*AVERAGE(H37:O37)+$E$6*AVERAGE(P37:Q37)+$E$7*R37+$E$8*U37)</f>
+        <v>49</v>
       </c>
       <c r="F37" s="9" t="n">
         <v>16</v>
@@ -1896,20 +2134,28 @@
         <v>50</v>
       </c>
       <c r="L37" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9"/>
-      <c r="N37" s="9" t="n">
-        <f aca="false">0.4*O37+0.6*P37</f>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9" t="n">
+        <f aca="false">0.4*S37+0.6*T37</f>
         <v>56</v>
       </c>
-      <c r="O37" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P37" s="9" t="n">
+      <c r="S37" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T37" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q37" s="9"/>
+      <c r="U37" s="9" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="9" t="n">
@@ -1922,8 +2168,8 @@
         <v>73</v>
       </c>
       <c r="E38" s="9" t="n">
-        <f aca="false">$E$4*F38/G38*100+$E$5*AVERAGE(H38:K38)+$E$6*AVERAGE(L38:M38)+$E$7*N38+$E$8*Q38</f>
-        <v>46.45</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F38/G38*100+$E$5*AVERAGE(H38:O38)+$E$6*AVERAGE(P38:Q38)+$E$7*R38+$E$8*U38)</f>
+        <v>53</v>
       </c>
       <c r="F38" s="9" t="n">
         <v>16</v>
@@ -1944,20 +2190,28 @@
         <v>50</v>
       </c>
       <c r="L38" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9" t="n">
-        <f aca="false">0.4*O38+0.6*P38</f>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9" t="n">
+        <f aca="false">0.4*S38+0.6*T38</f>
         <v>66</v>
       </c>
-      <c r="O38" s="9" t="n">
+      <c r="S38" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="P38" s="9" t="n">
+      <c r="T38" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q38" s="9"/>
+      <c r="U38" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="9" t="n">
@@ -1970,8 +2224,8 @@
         <v>75</v>
       </c>
       <c r="E39" s="9" t="n">
-        <f aca="false">$E$4*F39/G39*100+$E$5*AVERAGE(H39:K39)+$E$6*AVERAGE(L39:M39)+$E$7*N39+$E$8*Q39</f>
-        <v>40.95</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F39/G39*100+$E$5*AVERAGE(H39:O39)+$E$6*AVERAGE(P39:Q39)+$E$7*R39+$E$8*U39)</f>
+        <v>48</v>
       </c>
       <c r="F39" s="9" t="n">
         <v>16</v>
@@ -1992,20 +2246,28 @@
         <v>50</v>
       </c>
       <c r="L39" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M39" s="9"/>
-      <c r="N39" s="9" t="n">
-        <f aca="false">0.4*O39+0.6*P39</f>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9" t="n">
+        <f aca="false">0.4*S39+0.6*T39</f>
         <v>56</v>
       </c>
-      <c r="O39" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P39" s="9" t="n">
+      <c r="S39" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T39" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="Q39" s="9"/>
+      <c r="U39" s="9" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2015,11 +2277,11 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2038,15 +2300,13 @@
   </sheetPr>
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/nilai/Nilai RL 2 2019 - 2020.xlsx
+++ b/nilai/Nilai RL 2 2019 - 2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
   <si>
     <t xml:space="preserve">REKAPITULASI NILAI RANGKAIAN LISTRIK II 2019/2020</t>
   </si>
@@ -65,16 +65,19 @@
     <t xml:space="preserve">Kuis</t>
   </si>
   <si>
-    <t xml:space="preserve">Nilai Akhir UTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perbaikan UTS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jumlah Kehadiran</t>
   </si>
   <si>
     <t xml:space="preserve">Kehadiran Sempurna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rata – Rata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nilai Akhir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perbaikan</t>
   </si>
   <si>
     <t xml:space="preserve">04161063</t>
@@ -399,14 +402,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:U39"/>
+  <dimension ref="B2:V39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
-      <selection pane="topRight" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="9" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topRight" activeCell="O2" activeCellId="0" sqref="O2"/>
       <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
-      <selection pane="bottomRight" activeCell="L24" activeCellId="0" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="V12" activeCellId="0" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -439,6 +442,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="2"/>
@@ -462,6 +466,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="3" t="s">
@@ -486,6 +491,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="3" t="s">
@@ -510,6 +516,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="3" t="s">
@@ -534,6 +541,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="3" t="s">
@@ -558,6 +566,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="5" t="s">
@@ -594,20 +603,17 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="7" t="s">
+      <c r="R9" s="7"/>
+      <c r="S9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U9" s="7" t="s">
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -617,10 +623,10 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>1</v>
@@ -646,29 +652,38 @@
       <c r="O10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="P10" s="7" t="n">
+      <c r="P10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="7" t="n">
+      <c r="R10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="S10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F11/G11*100+$E$5*AVERAGE(H11:O11)+$E$6*AVERAGE(P11:Q11)+$E$7*R11+$E$8*U11)</f>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F11/G11*100+$E$5*AVERAGE(H11:O11)+$E$6*AVERAGE(Q11:R11)+$E$7*S11+$E$8*V11)</f>
         <v>10</v>
       </c>
       <c r="F11" s="9" t="n">
@@ -694,34 +709,38 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H11:O11))</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9" t="n">
-        <f aca="false">0.4*S11+0.6*T11</f>
+      <c r="Q11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="R11" s="9"/>
       <c r="S11" s="9" t="n">
+        <f aca="false">0.4*T11+0.6*U11</f>
         <v>0</v>
       </c>
       <c r="T11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="U11" s="9"/>
+      <c r="U11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F12/G12*100+$E$5*AVERAGE(H12:O12)+$E$6*AVERAGE(P12:Q12)+$E$7*R12+$E$8*U12)</f>
-        <v>48</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F12/G12*100+$E$5*AVERAGE(H12:O12)+$E$6*AVERAGE(Q12:R12)+$E$7*S12+$E$8*V12)</f>
+        <v>60</v>
       </c>
       <c r="F12" s="9" t="n">
         <v>16</v>
@@ -744,24 +763,36 @@
       <c r="L12" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="M12" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N12" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O12" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P12" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H12:O12))</f>
+        <v>67</v>
+      </c>
+      <c r="Q12" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R12" s="9" t="n">
-        <f aca="false">0.4*S12+0.6*T12</f>
+        <v>80</v>
+      </c>
+      <c r="S12" s="9" t="n">
+        <f aca="false">0.4*T12+0.6*U12</f>
         <v>56</v>
       </c>
-      <c r="S12" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T12" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U12" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V12" s="9" t="n">
         <v>30</v>
       </c>
     </row>
@@ -770,13 +801,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F13/G13*100+$E$5*AVERAGE(H13:O13)+$E$6*AVERAGE(P13:Q13)+$E$7*R13+$E$8*U13)</f>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F13/G13*100+$E$5*AVERAGE(H13:O13)+$E$6*AVERAGE(Q13:R13)+$E$7*S13+$E$8*V13)</f>
         <v>34</v>
       </c>
       <c r="F13" s="9" t="n">
@@ -804,34 +835,38 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H13:O13))</f>
+        <v>34</v>
+      </c>
+      <c r="Q13" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9" t="n">
-        <f aca="false">0.4*S13+0.6*T13</f>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9" t="n">
+        <f aca="false">0.4*T13+0.6*U13</f>
         <v>62</v>
       </c>
-      <c r="S13" s="9" t="n">
+      <c r="T13" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="T13" s="9" t="n">
+      <c r="U13" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="n">
         <v>4</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F14/G14*100+$E$5*AVERAGE(H14:O14)+$E$6*AVERAGE(P14:Q14)+$E$7*R14+$E$8*U14)</f>
-        <v>41</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F14/G14*100+$E$5*AVERAGE(H14:O14)+$E$6*AVERAGE(Q14:R14)+$E$7*S14+$E$8*V14)</f>
+        <v>54</v>
       </c>
       <c r="F14" s="9" t="n">
         <v>16</v>
@@ -854,24 +889,36 @@
       <c r="L14" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="M14" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P14" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H14:O14))</f>
+        <v>60</v>
+      </c>
+      <c r="Q14" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R14" s="9" t="n">
-        <f aca="false">0.4*S14+0.6*T14</f>
+        <v>80</v>
+      </c>
+      <c r="S14" s="9" t="n">
+        <f aca="false">0.4*T14+0.6*U14</f>
         <v>56</v>
       </c>
-      <c r="S14" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T14" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U14" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V14" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -880,14 +927,14 @@
         <v>5</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F15/G15*100+$E$5*AVERAGE(H15:O15)+$E$6*AVERAGE(P15:Q15)+$E$7*R15+$E$8*U15)</f>
-        <v>32</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F15/G15*100+$E$5*AVERAGE(H15:O15)+$E$6*AVERAGE(Q15:R15)+$E$7*S15+$E$8*V15)</f>
+        <v>50</v>
       </c>
       <c r="F15" s="9" t="n">
         <v>16</v>
@@ -908,24 +955,36 @@
         <v>50</v>
       </c>
       <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="M15" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P15" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H15:O15))</f>
+        <v>58</v>
+      </c>
+      <c r="Q15" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="Q15" s="9"/>
       <c r="R15" s="9" t="n">
-        <f aca="false">0.4*S15+0.6*T15</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S15" s="9" t="n">
+        <f aca="false">0.4*T15+0.6*U15</f>
+        <v>50</v>
+      </c>
+      <c r="T15" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="T15" s="9" t="n">
-        <v>80</v>
-      </c>
       <c r="U15" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V15" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -934,14 +993,14 @@
         <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F16/G16*100+$E$5*AVERAGE(H16:O16)+$E$6*AVERAGE(P16:Q16)+$E$7*R16+$E$8*U16)</f>
-        <v>38</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F16/G16*100+$E$5*AVERAGE(H16:O16)+$E$6*AVERAGE(Q16:R16)+$E$7*S16+$E$8*V16)</f>
+        <v>52</v>
       </c>
       <c r="F16" s="9" t="n">
         <v>16</v>
@@ -964,24 +1023,36 @@
       <c r="L16" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="M16" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P16" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H16:O16))</f>
+        <v>61</v>
+      </c>
+      <c r="Q16" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="Q16" s="9"/>
       <c r="R16" s="9" t="n">
-        <f aca="false">0.4*S16+0.6*T16</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S16" s="9" t="n">
+        <f aca="false">0.4*T16+0.6*U16</f>
+        <v>50</v>
+      </c>
+      <c r="T16" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="T16" s="9" t="n">
-        <v>80</v>
-      </c>
       <c r="U16" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V16" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -990,14 +1061,14 @@
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F17/G17*100+$E$5*AVERAGE(H17:O17)+$E$6*AVERAGE(P17:Q17)+$E$7*R17+$E$8*U17)</f>
-        <v>42</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F17/G17*100+$E$5*AVERAGE(H17:O17)+$E$6*AVERAGE(Q17:R17)+$E$7*S17+$E$8*V17)</f>
+        <v>55</v>
       </c>
       <c r="F17" s="9" t="n">
         <v>16</v>
@@ -1020,24 +1091,36 @@
       <c r="L17" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="M17" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N17" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P17" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H17:O17))</f>
+        <v>61</v>
+      </c>
+      <c r="Q17" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R17" s="9" t="n">
-        <f aca="false">0.4*S17+0.6*T17</f>
+        <v>80</v>
+      </c>
+      <c r="S17" s="9" t="n">
+        <f aca="false">0.4*T17+0.6*U17</f>
         <v>56</v>
       </c>
-      <c r="S17" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T17" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U17" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V17" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1046,14 +1129,14 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F18/G18*100+$E$5*AVERAGE(H18:O18)+$E$6*AVERAGE(P18:Q18)+$E$7*R18+$E$8*U18)</f>
-        <v>57</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F18/G18*100+$E$5*AVERAGE(H18:O18)+$E$6*AVERAGE(Q18:R18)+$E$7*S18+$E$8*V18)</f>
+        <v>66</v>
       </c>
       <c r="F18" s="9" t="n">
         <v>16</v>
@@ -1076,24 +1159,36 @@
       <c r="L18" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="M18" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P18" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H18:O18))</f>
+        <v>72</v>
+      </c>
+      <c r="Q18" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="Q18" s="9"/>
       <c r="R18" s="9" t="n">
-        <f aca="false">0.4*S18+0.6*T18</f>
+        <v>80</v>
+      </c>
+      <c r="S18" s="9" t="n">
+        <f aca="false">0.4*T18+0.6*U18</f>
         <v>74</v>
       </c>
-      <c r="S18" s="9" t="n">
+      <c r="T18" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="T18" s="9" t="n">
+      <c r="U18" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="U18" s="9" t="n">
+      <c r="V18" s="9" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1102,14 +1197,14 @@
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F19/G19*100+$E$5*AVERAGE(H19:O19)+$E$6*AVERAGE(P19:Q19)+$E$7*R19+$E$8*U19)</f>
-        <v>37</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F19/G19*100+$E$5*AVERAGE(H19:O19)+$E$6*AVERAGE(Q19:R19)+$E$7*S19+$E$8*V19)</f>
+        <v>52</v>
       </c>
       <c r="F19" s="9" t="n">
         <v>16</v>
@@ -1132,24 +1227,36 @@
       <c r="L19" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="M19" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N19" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P19" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H19:O19))</f>
+        <v>60</v>
+      </c>
+      <c r="Q19" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" s="9"/>
       <c r="R19" s="9" t="n">
-        <f aca="false">0.4*S19+0.6*T19</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S19" s="9" t="n">
+        <f aca="false">0.4*T19+0.6*U19</f>
+        <v>50</v>
+      </c>
+      <c r="T19" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="T19" s="9" t="n">
-        <v>80</v>
-      </c>
       <c r="U19" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V19" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1158,14 +1265,14 @@
         <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F20/G20*100+$E$5*AVERAGE(H20:O20)+$E$6*AVERAGE(P20:Q20)+$E$7*R20+$E$8*U20)</f>
-        <v>34</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F20/G20*100+$E$5*AVERAGE(H20:O20)+$E$6*AVERAGE(Q20:R20)+$E$7*S20+$E$8*V20)</f>
+        <v>48</v>
       </c>
       <c r="F20" s="9" t="n">
         <v>16</v>
@@ -1188,24 +1295,36 @@
       <c r="L20" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="M20" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P20" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H20:O20))</f>
+        <v>60</v>
+      </c>
+      <c r="Q20" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R20" s="9" t="n">
-        <f aca="false">0.4*S20+0.6*T20</f>
+        <v>80</v>
+      </c>
+      <c r="S20" s="9" t="n">
+        <f aca="false">0.4*T20+0.6*U20</f>
         <v>8</v>
       </c>
-      <c r="S20" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T20" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="U20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="U20" s="9" t="n">
+      <c r="V20" s="9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1214,14 +1333,14 @@
         <v>11</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F21/G21*100+$E$5*AVERAGE(H21:O21)+$E$6*AVERAGE(P21:Q21)+$E$7*R21+$E$8*U21)</f>
-        <v>51</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F21/G21*100+$E$5*AVERAGE(H21:O21)+$E$6*AVERAGE(Q21:R21)+$E$7*S21+$E$8*V21)</f>
+        <v>61</v>
       </c>
       <c r="F21" s="9" t="n">
         <v>16</v>
@@ -1244,24 +1363,36 @@
       <c r="L21" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="M21" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N21" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O21" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P21" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H21:O21))</f>
+        <v>75</v>
+      </c>
+      <c r="Q21" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R21" s="9" t="n">
-        <f aca="false">0.4*S21+0.6*T21</f>
+        <v>80</v>
+      </c>
+      <c r="S21" s="9" t="n">
+        <f aca="false">0.4*T21+0.6*U21</f>
         <v>56</v>
       </c>
-      <c r="S21" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T21" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U21" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V21" s="9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1270,14 +1401,14 @@
         <v>12</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F22/G22*100+$E$5*AVERAGE(H22:O22)+$E$6*AVERAGE(P22:Q22)+$E$7*R22+$E$8*U22)</f>
-        <v>41</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F22/G22*100+$E$5*AVERAGE(H22:O22)+$E$6*AVERAGE(Q22:R22)+$E$7*S22+$E$8*V22)</f>
+        <v>54</v>
       </c>
       <c r="F22" s="9" t="n">
         <v>16</v>
@@ -1300,24 +1431,36 @@
       <c r="L22" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="M22" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P22" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H22:O22))</f>
+        <v>60</v>
+      </c>
+      <c r="Q22" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R22" s="9" t="n">
-        <f aca="false">0.4*S22+0.6*T22</f>
+        <v>80</v>
+      </c>
+      <c r="S22" s="9" t="n">
+        <f aca="false">0.4*T22+0.6*U22</f>
         <v>56</v>
       </c>
-      <c r="S22" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T22" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U22" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V22" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1326,14 +1469,14 @@
         <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F23/G23*100+$E$5*AVERAGE(H23:O23)+$E$6*AVERAGE(P23:Q23)+$E$7*R23+$E$8*U23)</f>
-        <v>47</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F23/G23*100+$E$5*AVERAGE(H23:O23)+$E$6*AVERAGE(Q23:R23)+$E$7*S23+$E$8*V23)</f>
+        <v>58</v>
       </c>
       <c r="F23" s="9" t="n">
         <v>16</v>
@@ -1356,24 +1499,36 @@
       <c r="L23" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="M23" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P23" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H23:O23))</f>
+        <v>69</v>
+      </c>
+      <c r="Q23" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R23" s="9" t="n">
-        <f aca="false">0.4*S23+0.6*T23</f>
+        <v>80</v>
+      </c>
+      <c r="S23" s="9" t="n">
+        <f aca="false">0.4*T23+0.6*U23</f>
         <v>56</v>
       </c>
-      <c r="S23" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T23" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U23" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V23" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1382,14 +1537,14 @@
         <v>14</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F24/G24*100+$E$5*AVERAGE(H24:O24)+$E$6*AVERAGE(P24:Q24)+$E$7*R24+$E$8*U24)</f>
-        <v>42</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F24/G24*100+$E$5*AVERAGE(H24:O24)+$E$6*AVERAGE(Q24:R24)+$E$7*S24+$E$8*V24)</f>
+        <v>55</v>
       </c>
       <c r="F24" s="9" t="n">
         <v>16</v>
@@ -1412,24 +1567,36 @@
       <c r="L24" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="M24" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P24" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H24:O24))</f>
+        <v>61</v>
+      </c>
+      <c r="Q24" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R24" s="9" t="n">
-        <f aca="false">0.4*S24+0.6*T24</f>
+        <v>80</v>
+      </c>
+      <c r="S24" s="9" t="n">
+        <f aca="false">0.4*T24+0.6*U24</f>
         <v>56</v>
       </c>
-      <c r="S24" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T24" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U24" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V24" s="9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1438,14 +1605,14 @@
         <v>15</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F25/G25*100+$E$5*AVERAGE(H25:O25)+$E$6*AVERAGE(P25:Q25)+$E$7*R25+$E$8*U25)</f>
-        <v>39</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F25/G25*100+$E$5*AVERAGE(H25:O25)+$E$6*AVERAGE(Q25:R25)+$E$7*S25+$E$8*V25)</f>
+        <v>53</v>
       </c>
       <c r="F25" s="9" t="n">
         <v>16</v>
@@ -1468,24 +1635,36 @@
       <c r="L25" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="M25" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N25" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O25" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P25" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H25:O25))</f>
+        <v>64</v>
+      </c>
+      <c r="Q25" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="Q25" s="9"/>
       <c r="R25" s="9" t="n">
-        <f aca="false">0.4*S25+0.6*T25</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S25" s="9" t="n">
+        <f aca="false">0.4*T25+0.6*U25</f>
+        <v>50</v>
+      </c>
+      <c r="T25" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="T25" s="9" t="n">
-        <v>80</v>
-      </c>
       <c r="U25" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V25" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1494,14 +1673,14 @@
         <v>16</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F26/G26*100+$E$5*AVERAGE(H26:O26)+$E$6*AVERAGE(P26:Q26)+$E$7*R26+$E$8*U26)</f>
-        <v>40</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F26/G26*100+$E$5*AVERAGE(H26:O26)+$E$6*AVERAGE(Q26:R26)+$E$7*S26+$E$8*V26)</f>
+        <v>55</v>
       </c>
       <c r="F26" s="9" t="n">
         <v>16</v>
@@ -1524,24 +1703,36 @@
       <c r="L26" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="M26" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N26" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O26" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P26" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H26:O26))</f>
+        <v>61</v>
+      </c>
+      <c r="Q26" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Q26" s="9"/>
       <c r="R26" s="9" t="n">
-        <f aca="false">0.4*S26+0.6*T26</f>
+        <v>80</v>
+      </c>
+      <c r="S26" s="9" t="n">
+        <f aca="false">0.4*T26+0.6*U26</f>
         <v>52</v>
       </c>
-      <c r="S26" s="9" t="n">
+      <c r="T26" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="T26" s="9" t="n">
-        <v>80</v>
-      </c>
       <c r="U26" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V26" s="9" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1550,14 +1741,14 @@
         <v>17</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F27/G27*100+$E$5*AVERAGE(H27:O27)+$E$6*AVERAGE(Q27:R27)+$E$7*S27+$E$8*V27)</f>
         <v>51</v>
-      </c>
-      <c r="E27" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F27/G27*100+$E$5*AVERAGE(H27:O27)+$E$6*AVERAGE(P27:Q27)+$E$7*R27+$E$8*U27)</f>
-        <v>36</v>
       </c>
       <c r="F27" s="9" t="n">
         <v>16</v>
@@ -1580,24 +1771,36 @@
       <c r="L27" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
+      <c r="M27" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N27" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O27" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P27" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H27:O27))</f>
+        <v>58</v>
+      </c>
+      <c r="Q27" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="Q27" s="9"/>
       <c r="R27" s="9" t="n">
-        <f aca="false">0.4*S27+0.6*T27</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S27" s="9" t="n">
+        <f aca="false">0.4*T27+0.6*U27</f>
+        <v>50</v>
+      </c>
+      <c r="T27" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="T27" s="9" t="n">
-        <v>80</v>
-      </c>
       <c r="U27" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V27" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1606,14 +1809,14 @@
         <v>18</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E28" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F28/G28*100+$E$5*AVERAGE(H28:O28)+$E$6*AVERAGE(P28:Q28)+$E$7*R28+$E$8*U28)</f>
-        <v>36</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F28/G28*100+$E$5*AVERAGE(H28:O28)+$E$6*AVERAGE(Q28:R28)+$E$7*S28+$E$8*V28)</f>
+        <v>48</v>
       </c>
       <c r="F28" s="9" t="n">
         <v>16</v>
@@ -1637,23 +1840,33 @@
         <v>90</v>
       </c>
       <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="N28" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O28" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P28" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H28:O28))</f>
+        <v>51</v>
+      </c>
+      <c r="Q28" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R28" s="9" t="n">
-        <f aca="false">0.4*S28+0.6*T28</f>
+        <v>80</v>
+      </c>
+      <c r="S28" s="9" t="n">
+        <f aca="false">0.4*T28+0.6*U28</f>
         <v>38</v>
       </c>
-      <c r="S28" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T28" s="9" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U28" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="V28" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1662,14 +1875,14 @@
         <v>19</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F29/G29*100+$E$5*AVERAGE(H29:O29)+$E$6*AVERAGE(Q29:R29)+$E$7*S29+$E$8*V29)</f>
         <v>55</v>
-      </c>
-      <c r="E29" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F29/G29*100+$E$5*AVERAGE(H29:O29)+$E$6*AVERAGE(P29:Q29)+$E$7*R29+$E$8*U29)</f>
-        <v>42</v>
       </c>
       <c r="F29" s="9" t="n">
         <v>16</v>
@@ -1692,24 +1905,36 @@
       <c r="L29" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="M29" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N29" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O29" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P29" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H29:O29))</f>
+        <v>67</v>
+      </c>
+      <c r="Q29" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="Q29" s="9"/>
       <c r="R29" s="9" t="n">
-        <f aca="false">0.4*S29+0.6*T29</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S29" s="9" t="n">
+        <f aca="false">0.4*T29+0.6*U29</f>
+        <v>50</v>
+      </c>
+      <c r="T29" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="T29" s="9" t="n">
-        <v>80</v>
-      </c>
       <c r="U29" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V29" s="9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1718,14 +1943,14 @@
         <v>20</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F30/G30*100+$E$5*AVERAGE(H30:O30)+$E$6*AVERAGE(P30:Q30)+$E$7*R30+$E$8*U30)</f>
-        <v>36</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F30/G30*100+$E$5*AVERAGE(H30:O30)+$E$6*AVERAGE(Q30:R30)+$E$7*S30+$E$8*V30)</f>
+        <v>53</v>
       </c>
       <c r="F30" s="9" t="n">
         <v>16</v>
@@ -1746,24 +1971,36 @@
         <v>30</v>
       </c>
       <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="M30" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N30" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O30" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P30" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H30:O30))</f>
+        <v>55</v>
+      </c>
+      <c r="Q30" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R30" s="9" t="n">
-        <f aca="false">0.4*S30+0.6*T30</f>
+        <v>80</v>
+      </c>
+      <c r="S30" s="9" t="n">
+        <f aca="false">0.4*T30+0.6*U30</f>
         <v>56</v>
       </c>
-      <c r="S30" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T30" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U30" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V30" s="9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1772,14 +2009,14 @@
         <v>21</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F31/G31*100+$E$5*AVERAGE(H31:O31)+$E$6*AVERAGE(P31:Q31)+$E$7*R31+$E$8*U31)</f>
-        <v>49</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F31/G31*100+$E$5*AVERAGE(H31:O31)+$E$6*AVERAGE(Q31:R31)+$E$7*S31+$E$8*V31)</f>
+        <v>60</v>
       </c>
       <c r="F31" s="9" t="n">
         <v>16</v>
@@ -1802,24 +2039,36 @@
       <c r="L31" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
+      <c r="M31" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N31" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O31" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P31" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H31:O31))</f>
+        <v>69</v>
+      </c>
+      <c r="Q31" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R31" s="9" t="n">
-        <f aca="false">0.4*S31+0.6*T31</f>
+        <v>80</v>
+      </c>
+      <c r="S31" s="9" t="n">
+        <f aca="false">0.4*T31+0.6*U31</f>
         <v>68</v>
       </c>
-      <c r="S31" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T31" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="U31" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="U31" s="9" t="n">
+      <c r="V31" s="9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1828,14 +2077,14 @@
         <v>22</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F32/G32*100+$E$5*AVERAGE(H32:O32)+$E$6*AVERAGE(P32:Q32)+$E$7*R32+$E$8*U32)</f>
-        <v>36</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F32/G32*100+$E$5*AVERAGE(H32:O32)+$E$6*AVERAGE(Q32:R32)+$E$7*S32+$E$8*V32)</f>
+        <v>51</v>
       </c>
       <c r="F32" s="9" t="n">
         <v>16</v>
@@ -1858,24 +2107,36 @@
       <c r="L32" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
+      <c r="M32" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N32" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O32" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P32" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H32:O32))</f>
+        <v>59</v>
+      </c>
+      <c r="Q32" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="Q32" s="9"/>
       <c r="R32" s="9" t="n">
-        <f aca="false">0.4*S32+0.6*T32</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S32" s="9" t="n">
+        <f aca="false">0.4*T32+0.6*U32</f>
+        <v>50</v>
+      </c>
+      <c r="T32" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="T32" s="9" t="n">
-        <v>80</v>
-      </c>
       <c r="U32" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V32" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1884,14 +2145,14 @@
         <v>23</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F33/G33*100+$E$5*AVERAGE(H33:O33)+$E$6*AVERAGE(P33:Q33)+$E$7*R33+$E$8*U33)</f>
-        <v>45</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F33/G33*100+$E$5*AVERAGE(H33:O33)+$E$6*AVERAGE(Q33:R33)+$E$7*S33+$E$8*V33)</f>
+        <v>57</v>
       </c>
       <c r="F33" s="9" t="n">
         <v>16</v>
@@ -1914,24 +2175,36 @@
       <c r="L33" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
+      <c r="M33" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N33" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O33" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P33" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H33:O33))</f>
+        <v>64</v>
+      </c>
+      <c r="Q33" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="Q33" s="9"/>
       <c r="R33" s="9" t="n">
-        <f aca="false">0.4*S33+0.6*T33</f>
+        <v>80</v>
+      </c>
+      <c r="S33" s="9" t="n">
+        <f aca="false">0.4*T33+0.6*U33</f>
         <v>56</v>
       </c>
-      <c r="S33" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T33" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U33" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V33" s="9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1940,14 +2213,14 @@
         <v>24</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E34" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F34/G34*100+$E$5*AVERAGE(H34:O34)+$E$6*AVERAGE(P34:Q34)+$E$7*R34+$E$8*U34)</f>
-        <v>45</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F34/G34*100+$E$5*AVERAGE(H34:O34)+$E$6*AVERAGE(Q34:R34)+$E$7*S34+$E$8*V34)</f>
+        <v>58</v>
       </c>
       <c r="F34" s="9" t="n">
         <v>16</v>
@@ -1968,24 +2241,36 @@
         <v>50</v>
       </c>
       <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
+      <c r="M34" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N34" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O34" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P34" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H34:O34))</f>
+        <v>68</v>
+      </c>
+      <c r="Q34" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R34" s="9" t="n">
-        <f aca="false">0.4*S34+0.6*T34</f>
+        <v>80</v>
+      </c>
+      <c r="S34" s="9" t="n">
+        <f aca="false">0.4*T34+0.6*U34</f>
         <v>56</v>
       </c>
-      <c r="S34" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T34" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U34" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V34" s="9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1994,14 +2279,14 @@
         <v>25</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E35" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F35/G35*100+$E$5*AVERAGE(H35:O35)+$E$6*AVERAGE(P35:Q35)+$E$7*R35+$E$8*U35)</f>
-        <v>52</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F35/G35*100+$E$5*AVERAGE(H35:O35)+$E$6*AVERAGE(Q35:R35)+$E$7*S35+$E$8*V35)</f>
+        <v>61</v>
       </c>
       <c r="F35" s="9" t="n">
         <v>16</v>
@@ -2024,24 +2309,36 @@
       <c r="L35" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
+      <c r="M35" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N35" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O35" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P35" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H35:O35))</f>
+        <v>75</v>
+      </c>
+      <c r="Q35" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R35" s="9" t="n">
-        <f aca="false">0.4*S35+0.6*T35</f>
+        <v>80</v>
+      </c>
+      <c r="S35" s="9" t="n">
+        <f aca="false">0.4*T35+0.6*U35</f>
         <v>56</v>
       </c>
-      <c r="S35" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T35" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U35" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V35" s="9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2050,14 +2347,14 @@
         <v>26</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F36/G36*100+$E$5*AVERAGE(H36:O36)+$E$6*AVERAGE(P36:Q36)+$E$7*R36+$E$8*U36)</f>
-        <v>43</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F36/G36*100+$E$5*AVERAGE(H36:O36)+$E$6*AVERAGE(Q36:R36)+$E$7*S36+$E$8*V36)</f>
+        <v>55</v>
       </c>
       <c r="F36" s="9" t="n">
         <v>16</v>
@@ -2080,24 +2377,36 @@
       <c r="L36" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
+      <c r="M36" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N36" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O36" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P36" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H36:O36))</f>
+        <v>69</v>
+      </c>
+      <c r="Q36" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="Q36" s="9"/>
       <c r="R36" s="9" t="n">
-        <f aca="false">0.4*S36+0.6*T36</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S36" s="9" t="n">
+        <f aca="false">0.4*T36+0.6*U36</f>
+        <v>50</v>
+      </c>
+      <c r="T36" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="T36" s="9" t="n">
-        <v>80</v>
-      </c>
       <c r="U36" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V36" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2106,14 +2415,14 @@
         <v>27</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F37/G37*100+$E$5*AVERAGE(H37:O37)+$E$6*AVERAGE(P37:Q37)+$E$7*R37+$E$8*U37)</f>
-        <v>49</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F37/G37*100+$E$5*AVERAGE(H37:O37)+$E$6*AVERAGE(Q37:R37)+$E$7*S37+$E$8*V37)</f>
+        <v>60</v>
       </c>
       <c r="F37" s="9" t="n">
         <v>16</v>
@@ -2136,24 +2445,36 @@
       <c r="L37" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
+      <c r="M37" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N37" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O37" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P37" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H37:O37))</f>
+        <v>69</v>
+      </c>
+      <c r="Q37" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R37" s="9" t="n">
-        <f aca="false">0.4*S37+0.6*T37</f>
+        <v>80</v>
+      </c>
+      <c r="S37" s="9" t="n">
+        <f aca="false">0.4*T37+0.6*U37</f>
         <v>56</v>
       </c>
-      <c r="S37" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T37" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U37" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V37" s="9" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2162,14 +2483,14 @@
         <v>28</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F38/G38*100+$E$5*AVERAGE(H38:O38)+$E$6*AVERAGE(P38:Q38)+$E$7*R38+$E$8*U38)</f>
-        <v>53</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F38/G38*100+$E$5*AVERAGE(H38:O38)+$E$6*AVERAGE(Q38:R38)+$E$7*S38+$E$8*V38)</f>
+        <v>62</v>
       </c>
       <c r="F38" s="9" t="n">
         <v>16</v>
@@ -2192,24 +2513,36 @@
       <c r="L38" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="M38" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N38" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O38" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P38" s="9" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H38:O38))</f>
+        <v>69</v>
+      </c>
+      <c r="Q38" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="Q38" s="9"/>
       <c r="R38" s="9" t="n">
-        <f aca="false">0.4*S38+0.6*T38</f>
+        <v>80</v>
+      </c>
+      <c r="S38" s="9" t="n">
+        <f aca="false">0.4*T38+0.6*U38</f>
         <v>66</v>
       </c>
-      <c r="S38" s="9" t="n">
+      <c r="T38" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="T38" s="9" t="n">
-        <v>80</v>
-      </c>
       <c r="U38" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V38" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2218,14 +2551,14 @@
         <v>29</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" s="9" t="n">
-        <f aca="false">_xlfn.CEILING.MATH($E$4*F39/G39*100+$E$5*AVERAGE(H39:O39)+$E$6*AVERAGE(P39:Q39)+$E$7*R39+$E$8*U39)</f>
-        <v>48</v>
+        <f aca="false">_xlfn.CEILING.MATH($E$4*F39/G39*100+$E$5*AVERAGE(H39:O39)+$E$6*AVERAGE(Q39:R39)+$E$7*S39+$E$8*V39)</f>
+        <v>58</v>
       </c>
       <c r="F39" s="9" t="n">
         <v>16</v>
@@ -2248,40 +2581,50 @@
       <c r="L39" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
+      <c r="M39" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N39" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O39" s="9" t="n">
+        <v>90</v>
+      </c>
       <c r="P39" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="9"/>
+        <f aca="false">_xlfn.CEILING.MATH(AVERAGE(H39:O39))</f>
+        <v>72</v>
+      </c>
+      <c r="Q39" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="R39" s="9" t="n">
-        <f aca="false">0.4*S39+0.6*T39</f>
+        <v>80</v>
+      </c>
+      <c r="S39" s="9" t="n">
+        <f aca="false">0.4*T39+0.6*U39</f>
         <v>56</v>
       </c>
-      <c r="S39" s="9" t="n">
-        <v>20</v>
-      </c>
       <c r="T39" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U39" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V39" s="9" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2325,7 +2668,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,10 +2687,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,10 +2698,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,10 +2709,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,10 +2720,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,10 +2731,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,10 +2742,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,10 +2753,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -2424,10 +2767,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2435,10 +2778,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,10 +2789,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -2460,10 +2803,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,10 +2814,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,10 +2825,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,10 +2836,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,10 +2847,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,10 +2858,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,10 +2869,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,10 +2880,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,10 +2891,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,10 +2902,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,10 +2913,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,10 +2924,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,10 +2935,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,10 +2946,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,10 +2957,10 @@
         <v>26</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,10 +2968,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,10 +2979,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1</v>
@@ -2650,10 +2993,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/nilai/Nilai RL 2 2019 - 2020.xlsx
+++ b/nilai/Nilai RL 2 2019 - 2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <si>
     <t xml:space="preserve">REKAPITULASI NILAI RANGKAIAN LISTRIK II 2019/2020</t>
   </si>
@@ -227,34 +227,37 @@
     <t xml:space="preserve">04181027</t>
   </si>
   <si>
+    <t xml:space="preserve">Dimas Aditya Candra Nugraha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04181028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimas Bayu Putra Pangestu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04181029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dionysius Galih Santiko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04181030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duwi Febriawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04181046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irfan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metode</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dima Aditya Candra Nugraha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04181028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimas Bayu Putra Pangestu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04181029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dionysius Galih Santiko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04181030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duwi Febriawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04181046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irfan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metode</t>
   </si>
 </sst>
 </file>
@@ -405,11 +408,11 @@
   <dimension ref="B2:V39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="P25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-      <selection pane="topRight" activeCell="O2" activeCellId="0" sqref="O2"/>
-      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
-      <selection pane="bottomRight" activeCell="V12" activeCellId="0" sqref="V12"/>
+      <selection pane="topRight" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2949,7 +2952,7 @@
         <v>67</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
